--- a/DDF/Phase2/TY_01/Test_Data.xlsx
+++ b/DDF/Phase2/TY_01/Test_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
   <si>
     <t>021_SD_MUMB_PRO</t>
   </si>
@@ -57,9 +57,6 @@
     <t>TC_220</t>
   </si>
   <si>
-    <t>006_SD_MUMB_PRO</t>
-  </si>
-  <si>
     <t>TC_ID</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>TC_323</t>
-  </si>
-  <si>
-    <t>011_SD_MUMB_PRO</t>
   </si>
   <si>
     <t>TC_359</t>
@@ -683,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,52 +696,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -780,40 +774,40 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -824,40 +818,40 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -868,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -877,13 +871,13 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -894,22 +888,22 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -917,10 +911,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>26</v>
@@ -928,107 +922,107 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>87697</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>786543</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>26.63</v>
@@ -1037,27 +1031,27 @@
         <v>9164883456</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1083,13 +1077,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -1097,39 +1091,39 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1137,31 +1131,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19">
         <v>76.13</v>
@@ -1169,31 +1163,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20">
         <v>6.33</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20">
         <v>85.45</v>
@@ -1201,31 +1195,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1233,51 +1227,51 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>1234567</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H23">
         <v>28.52</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23">
         <v>206.76</v>
@@ -1285,25 +1279,25 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1311,13 +1305,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1325,19 +1319,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -1345,174 +1339,174 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
